--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143EF9B-51A2-4C67-8034-6CC6AC80BD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241E332-6642-42E9-863C-5A7B91E0F7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="6120" windowWidth="21600" windowHeight="10290" activeTab="3" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
+    <workbookView xWindow="12900" yWindow="1845" windowWidth="21600" windowHeight="12315" activeTab="4" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
   <sheets>
     <sheet name="QualitySheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
   <si>
     <t>Accuracy</t>
   </si>
@@ -46,30 +46,6 @@
     <t>Reliable</t>
   </si>
   <si>
-    <t>Trainability and Learnability</t>
-  </si>
-  <si>
-    <t>Practicality</t>
-  </si>
-  <si>
-    <t>Context Coverage</t>
-  </si>
-  <si>
-    <t>Risk Mitigations</t>
-  </si>
-  <si>
-    <t>Satisfaction of Use</t>
-  </si>
-  <si>
-    <t>Attentive Attributes</t>
-  </si>
-  <si>
-    <t>Ouput of Information</t>
-  </si>
-  <si>
-    <t>Input of Information</t>
-  </si>
-  <si>
     <t>Procedural Use</t>
   </si>
   <si>
@@ -88,30 +64,6 @@
     <t>Situationally aware</t>
   </si>
   <si>
-    <t>Error Management</t>
-  </si>
-  <si>
-    <t>User's attention</t>
-  </si>
-  <si>
-    <t>Usage patterns</t>
-  </si>
-  <si>
-    <t>User aware of limitations</t>
-  </si>
-  <si>
-    <t>Validatable</t>
-  </si>
-  <si>
-    <t>Effectiveness</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Communication Required</t>
-  </si>
-  <si>
     <t>Understandability</t>
   </si>
   <si>
@@ -127,9 +79,6 @@
     <t>Width</t>
   </si>
   <si>
-    <t>Redundancy</t>
-  </si>
-  <si>
     <t>Panel 1</t>
   </si>
   <si>
@@ -235,13 +184,79 @@
     <t>Procedure 30</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>24,27</t>
   </si>
   <si>
     <t>38,41</t>
+  </si>
+  <si>
+    <t>Test Attribute 1</t>
+  </si>
+  <si>
+    <t>Test Attribute 2</t>
+  </si>
+  <si>
+    <t>Test Attribute 3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Procedure 31</t>
+  </si>
+  <si>
+    <t>Panel 6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13,6,11,1</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>10,4,12</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>81,74,79,69</t>
+  </si>
+  <si>
+    <t>77,70</t>
+  </si>
+  <si>
+    <t>75,71</t>
+  </si>
+  <si>
+    <t>78,72,80</t>
+  </si>
+  <si>
+    <t>76,73</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -605,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,24 +655,26 @@
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -686,7 +703,9 @@
       <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -705,7 +724,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -722,7 +741,9 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -741,7 +762,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -758,7 +779,9 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -794,7 +817,9 @@
       <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -813,7 +838,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -830,7 +855,9 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -849,7 +876,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -866,7 +893,9 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -885,7 +914,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -902,7 +931,9 @@
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -938,7 +969,9 @@
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -957,24 +990,26 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -983,34 +1018,29 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1019,34 +1049,29 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1055,23 +1080,16 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -1080,9 +1098,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1091,469 +1111,6 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E7872-AEB2-439A-AA22-2EFACC4ADFCE}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,624 +1144,740 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2215,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027EA97-39C6-4A00-847A-7E78910072DF}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,29 +1912,32 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2278,10 +1954,13 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2298,10 +1977,13 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2318,10 +2000,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2338,10 +2023,13 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2358,10 +2046,13 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2378,10 +2069,13 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2398,10 +2092,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2418,10 +2115,13 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2438,10 +2138,13 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2458,10 +2161,13 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2478,10 +2184,13 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2498,10 +2207,13 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2518,10 +2230,13 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2538,10 +2253,13 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -2558,10 +2276,13 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2570,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -2578,10 +2299,13 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2598,10 +2322,13 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2618,10 +2345,13 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2638,16 +2368,19 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2658,10 +2391,13 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2678,10 +2414,13 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2698,10 +2437,13 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2718,10 +2460,13 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -2738,10 +2483,13 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -2758,10 +2506,13 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2778,10 +2529,13 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2798,10 +2552,13 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2818,10 +2575,13 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2838,10 +2598,13 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2857,6 +2620,32 @@
       </c>
       <c r="F31" s="1">
         <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2866,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC5F28-856E-4AB6-A730-1C22BA4C9B5A}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G32" sqref="G1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,22 +2681,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2917,7 +2709,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -2934,10 +2726,13 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -2954,10 +2749,13 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2974,10 +2772,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2994,10 +2795,13 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -3013,11 +2817,14 @@
       </c>
       <c r="F6" s="1">
         <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -3034,10 +2841,13 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -3054,10 +2864,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>10</v>
@@ -3074,10 +2887,13 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3094,10 +2910,13 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3114,10 +2933,13 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3134,10 +2956,13 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -3154,10 +2979,13 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -3174,10 +3002,13 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -3194,10 +3025,13 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>21</v>
@@ -3214,10 +3048,13 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>23</v>
@@ -3226,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>26</v>
@@ -3234,10 +3071,13 @@
       <c r="F17" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -3254,10 +3094,13 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -3274,10 +3117,13 @@
       <c r="F19" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>35</v>
@@ -3294,16 +3140,19 @@
       <c r="F20" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>39</v>
@@ -3314,10 +3163,13 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -3334,10 +3186,13 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>44</v>
@@ -3354,10 +3209,13 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>49</v>
@@ -3374,10 +3232,13 @@
       <c r="F24" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>54</v>
@@ -3394,10 +3255,13 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>57</v>
@@ -3414,10 +3278,13 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3434,10 +3301,13 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3454,10 +3324,13 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -3474,10 +3347,13 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -3494,10 +3370,13 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3513,6 +3392,32 @@
       </c>
       <c r="F31" s="1">
         <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3522,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C30AA8-3415-4BDB-A606-A9FA09E8CC8D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,18 +3441,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>230</v>
@@ -3558,7 +3463,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>210</v>
@@ -3569,7 +3474,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
@@ -3580,7 +3485,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>152</v>
@@ -3591,13 +3496,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>228</v>
       </c>
       <c r="C6" s="1">
         <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241E332-6642-42E9-863C-5A7B91E0F7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C1346-5A3C-469E-9C0C-B4298EC602D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1845" windowWidth="21600" windowHeight="12315" activeTab="4" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
   <sheets>
     <sheet name="QualitySheet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SequenceSheet" sheetId="3" r:id="rId3"/>
     <sheet name="EntireSequenceSheet" sheetId="4" r:id="rId4"/>
     <sheet name="SizeSpec" sheetId="5" r:id="rId5"/>
+    <sheet name="TEMPSHEET" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="89">
   <si>
     <t>Accuracy</t>
   </si>
@@ -211,21 +212,12 @@
     <t>5,2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Procedure 31</t>
   </si>
   <si>
     <t>Panel 6</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>13,6,11,1</t>
   </si>
   <si>
@@ -257,6 +249,60 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>1,6,11,13</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>4,10,12</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>Test Attribute 4</t>
+  </si>
+  <si>
+    <t>Test Attribute 5</t>
+  </si>
+  <si>
+    <t>Test Attribute 6</t>
+  </si>
+  <si>
+    <t>Test Attribute 7</t>
+  </si>
+  <si>
+    <t>Test Attribute 8</t>
+  </si>
+  <si>
+    <t>Test Attribute 9</t>
+  </si>
+  <si>
+    <t>Test Attribute 10</t>
+  </si>
+  <si>
+    <t>69,74,79,81</t>
+  </si>
+  <si>
+    <t>70,77</t>
+  </si>
+  <si>
+    <t>71,75</t>
+  </si>
+  <si>
+    <t>72,78,80</t>
+  </si>
+  <si>
+    <t>73,76</t>
   </si>
 </sst>
 </file>
@@ -620,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +699,7 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -672,9 +718,7 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -682,9 +726,8 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,9 +746,7 @@
       <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -720,9 +761,8 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -741,9 +781,7 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -758,9 +796,8 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -779,9 +816,7 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -796,9 +831,8 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -817,9 +851,7 @@
       <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -834,9 +866,8 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,9 +886,7 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -872,9 +901,8 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -893,9 +921,7 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -910,9 +936,8 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -931,9 +956,7 @@
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -948,9 +971,8 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -969,9 +991,7 @@
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -986,9 +1006,8 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1007,9 +1026,7 @@
       <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1017,9 +1034,8 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1038,9 +1054,7 @@
       <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1048,9 +1062,8 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1069,9 +1082,7 @@
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1079,30 +1090,27 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1110,9 +1118,205 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1120,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E7872-AEB2-439A-AA22-2EFACC4ADFCE}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1348,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,11 +1367,8 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1186,11 +1387,8 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1209,11 +1407,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1232,11 +1427,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1255,11 +1447,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1278,11 +1467,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,11 +1487,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,11 +1507,8 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1347,11 +1527,8 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1370,11 +1547,8 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1393,11 +1567,8 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1416,11 +1587,8 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1439,11 +1607,8 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,11 +1627,8 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1485,11 +1647,8 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1508,11 +1667,8 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1531,11 +1687,8 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1554,11 +1707,8 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1577,11 +1727,8 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1600,11 +1747,8 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1623,11 +1767,8 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1646,11 +1787,8 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1669,11 +1807,8 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1692,11 +1827,8 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1715,11 +1847,8 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1738,11 +1867,8 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1761,11 +1887,8 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1784,11 +1907,8 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1807,11 +1927,8 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -1830,11 +1947,8 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1853,13 +1967,10 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
@@ -1875,9 +1986,6 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1888,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027EA97-39C6-4A00-847A-7E78910072DF}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +2020,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1931,11 +2039,8 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1954,11 +2059,8 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1977,11 +2079,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2000,11 +2099,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2023,11 +2119,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2046,11 +2139,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,11 +2159,8 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2092,11 +2179,8 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2115,11 +2199,8 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2138,11 +2219,8 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2161,11 +2239,8 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2184,11 +2259,8 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2207,11 +2279,8 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2230,11 +2299,8 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2253,11 +2319,8 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2276,11 +2339,8 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2291,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -2299,11 +2359,8 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,11 +2379,8 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,11 +2399,8 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2368,11 +2419,8 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2391,11 +2439,8 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2414,11 +2459,8 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2437,11 +2479,8 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2460,11 +2499,8 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2483,11 +2519,8 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2506,11 +2539,8 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2529,11 +2559,8 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2552,11 +2579,8 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2575,11 +2599,8 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,11 +2619,8 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2621,31 +2639,25 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2670,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G1:G32"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,9 +2710,6 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2726,9 +2735,6 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2749,9 +2755,6 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2772,9 +2775,6 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2795,9 +2795,6 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2818,9 +2815,6 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2841,9 +2835,6 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2864,9 +2855,6 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2887,9 +2875,6 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2910,9 +2895,6 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2933,9 +2915,6 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2956,9 +2935,6 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2979,9 +2955,6 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3002,9 +2975,6 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3025,9 +2995,6 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -3048,11 +3015,8 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3071,11 +3035,8 @@
       <c r="F17" s="1">
         <v>25</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3094,11 +3055,8 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3117,11 +3075,8 @@
       <c r="F19" s="1">
         <v>33</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3140,11 +3095,8 @@
       <c r="F20" s="1">
         <v>34</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3163,11 +3115,8 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3186,11 +3135,8 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3209,11 +3155,8 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3232,11 +3175,8 @@
       <c r="F24" s="1">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3255,11 +3195,8 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -3278,11 +3215,8 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3301,11 +3235,8 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3324,11 +3255,8 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3347,11 +3275,8 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3370,11 +3295,8 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3393,31 +3315,25 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3427,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C30AA8-3415-4BDB-A606-A9FA09E8CC8D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,16 +3421,1536 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603DCBA2-9811-4A26-8C3D-56F43125688B}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1">
+        <v>14</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="1">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>25</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>28</v>
+      </c>
+      <c r="O18" s="1">
+        <v>29</v>
+      </c>
+      <c r="P18" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>31</v>
+      </c>
+      <c r="O19" s="1">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>33</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1">
+        <v>35</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>37</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>43</v>
+      </c>
+      <c r="O22" s="1">
+        <v>42</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1">
+        <v>46</v>
+      </c>
+      <c r="P23" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="1">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1">
+        <v>51</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>48</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="1">
+        <v>54</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>53</v>
+      </c>
+      <c r="P25" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="1">
+        <v>57</v>
+      </c>
+      <c r="N26" s="1">
+        <v>55</v>
+      </c>
+      <c r="O26" s="1">
+        <v>56</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>58</v>
+      </c>
+      <c r="O27" s="1">
+        <v>59</v>
+      </c>
+      <c r="P27" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>62</v>
+      </c>
+      <c r="O28" s="1">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="P28" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>64</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>67</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C1346-5A3C-469E-9C0C-B4298EC602D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D280BB-19E8-48C0-B8A4-943ECD4FB21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
   <sheets>
     <sheet name="QualitySheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="83">
   <si>
     <t>Accuracy</t>
   </si>
@@ -251,24 +251,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>1,6,11,13</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>4,10,12</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
     <t>Test Attribute 4</t>
   </si>
   <si>
@@ -290,19 +272,19 @@
     <t>Test Attribute 10</t>
   </si>
   <si>
-    <t>69,74,79,81</t>
-  </si>
-  <si>
-    <t>70,77</t>
-  </si>
-  <si>
-    <t>71,75</t>
-  </si>
-  <si>
-    <t>72,78,80</t>
-  </si>
-  <si>
-    <t>73,76</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Test Attribute 11</t>
+  </si>
+  <si>
+    <t>Test Attribute 12</t>
   </si>
 </sst>
 </file>
@@ -666,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +700,9 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -746,7 +730,9 @@
       <c r="F2" s="4">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -781,7 +767,9 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -816,7 +804,9 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -851,7 +841,9 @@
       <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -886,7 +878,9 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -921,7 +915,9 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -956,7 +952,9 @@
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -991,7 +989,9 @@
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1026,7 +1026,9 @@
       <c r="F10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1054,7 +1056,9 @@
       <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1082,7 +1086,9 @@
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>54</v>
@@ -1110,7 +1116,9 @@
       <c r="F13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1121,7 +1129,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
@@ -1138,7 +1146,9 @@
       <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1149,7 +1159,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>55</v>
@@ -1166,7 +1176,9 @@
       <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1177,7 +1189,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>56</v>
@@ -1194,7 +1206,9 @@
       <c r="F16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1205,7 +1219,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
@@ -1222,7 +1236,9 @@
       <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1233,7 +1249,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4">
         <v>5</v>
@@ -1250,7 +1266,9 @@
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>54</v>
@@ -1278,7 +1296,9 @@
       <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1289,7 +1309,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -1306,7 +1326,9 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1314,6 +1336,52 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1324,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E7872-AEB2-439A-AA22-2EFACC4ADFCE}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1416,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1435,11 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +1458,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1407,8 +1481,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1427,8 +1504,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1447,8 +1527,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,8 +1550,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1573,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1507,8 +1596,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1527,8 +1619,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1547,8 +1642,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1567,8 +1665,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1587,8 +1688,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1607,8 +1711,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1627,8 +1734,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1647,8 +1757,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1667,8 +1780,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1687,8 +1803,11 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1707,8 +1826,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1727,8 +1849,11 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1872,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1767,8 +1895,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1787,8 +1918,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1807,8 +1941,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1827,8 +1964,11 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1847,8 +1987,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1867,8 +2010,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,8 +2033,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,8 +2056,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1927,8 +2079,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -1947,8 +2102,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1967,8 +2125,11 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1986,6 +2147,9 @@
       </c>
       <c r="F32" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1996,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027EA97-39C6-4A00-847A-7E78910072DF}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2184,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2039,8 +2203,11 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2059,8 +2226,11 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2079,8 +2249,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2099,8 +2272,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2295,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2139,8 +2318,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2159,8 +2341,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2179,8 +2364,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2199,8 +2387,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2219,8 +2410,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2239,8 +2433,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2259,8 +2456,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2279,8 +2479,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2299,8 +2502,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2319,8 +2525,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2339,8 +2548,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2351,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -2359,8 +2571,11 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,8 +2594,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2399,8 +2617,11 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2419,8 +2640,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2428,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2439,8 +2663,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2459,8 +2686,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2479,8 +2709,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,8 +2732,11 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2519,8 +2755,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2539,8 +2778,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2559,8 +2801,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,8 +2824,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2599,8 +2847,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2619,8 +2870,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2639,25 +2893,31 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2930,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,6 +2970,9 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2735,6 +2998,9 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2755,6 +3021,9 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2775,6 +3044,9 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2795,6 +3067,9 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2815,6 +3090,9 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2835,6 +3113,9 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2855,6 +3136,9 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2875,6 +3159,9 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2895,6 +3182,9 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2915,6 +3205,9 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2935,6 +3228,9 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2955,6 +3251,9 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2975,6 +3274,9 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2995,6 +3297,9 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -3015,8 +3320,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3035,8 +3343,11 @@
       <c r="F17" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3055,8 +3366,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3075,8 +3389,11 @@
       <c r="F19" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3095,8 +3412,11 @@
       <c r="F20" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3115,8 +3435,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3135,8 +3458,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3155,8 +3481,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -3175,8 +3504,11 @@
       <c r="F24" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3195,8 +3527,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -3215,8 +3550,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3235,8 +3573,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3255,8 +3596,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3275,8 +3619,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3295,8 +3642,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -3315,25 +3665,31 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C30AA8-3415-4BDB-A606-A9FA09E8CC8D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,6 +3777,17 @@
         <v>146</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3431,7 +3798,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="R32" sqref="L1:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D280BB-19E8-48C0-B8A4-943ECD4FB21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB1C72-A0B2-4712-B37B-FC571FC6CDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
   <sheets>
     <sheet name="QualitySheet" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C30AA8-3415-4BDB-A606-A9FA09E8CC8D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>

--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB1C72-A0B2-4712-B37B-FC571FC6CDA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823376BC-EEF5-4719-9DA6-D651E08521A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="78">
   <si>
     <t>Accuracy</t>
   </si>
@@ -185,21 +185,6 @@
     <t>Procedure 30</t>
   </si>
   <si>
-    <t>24,27</t>
-  </si>
-  <si>
-    <t>38,41</t>
-  </si>
-  <si>
-    <t>Test Attribute 1</t>
-  </si>
-  <si>
-    <t>Test Attribute 2</t>
-  </si>
-  <si>
-    <t>Test Attribute 3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -251,40 +236,40 @@
     <t>0</t>
   </si>
   <si>
-    <t>Test Attribute 4</t>
-  </si>
-  <si>
-    <t>Test Attribute 5</t>
-  </si>
-  <si>
-    <t>Test Attribute 6</t>
-  </si>
-  <si>
-    <t>Test Attribute 7</t>
-  </si>
-  <si>
-    <t>Test Attribute 8</t>
-  </si>
-  <si>
-    <t>Test Attribute 9</t>
-  </si>
-  <si>
-    <t>Test Attribute 10</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Test Attribute 11</t>
-  </si>
-  <si>
-    <t>Test Attribute 12</t>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>70,77</t>
+  </si>
+  <si>
+    <t>27,24</t>
+  </si>
+  <si>
+    <t>41,38</t>
+  </si>
+  <si>
+    <t>1,13,6,11</t>
+  </si>
+  <si>
+    <t>10,12,4</t>
+  </si>
+  <si>
+    <t>74,79,69,81</t>
+  </si>
+  <si>
+    <t>78,80,72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel 6 </t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -648,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -731,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -768,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -805,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -842,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -879,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -916,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -953,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -990,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1009,378 +994,25 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1027,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2103,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,30 +1758,30 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +1795,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +1836,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2227,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2250,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2319,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2342,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2457,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2503,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2526,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2549,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2563,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -2572,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2595,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2618,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2641,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2664,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2687,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2733,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2756,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2779,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2825,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2871,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2894,33 +2526,34 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2930,7 +2563,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2999,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3022,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3045,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3068,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3091,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3114,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3137,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3160,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3183,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3206,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3229,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3252,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3275,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3298,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3321,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1">
         <v>26</v>
@@ -3344,7 +2977,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,7 +3046,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3424,7 +3057,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>39</v>
@@ -3436,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,7 +3138,7 @@
         <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3620,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3643,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,33 +3299,34 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3702,7 +3336,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,13 +3413,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3432,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="L1:R32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,7 +3457,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3846,7 +3480,7 @@
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3869,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3892,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3915,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3938,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3961,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3984,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4007,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4030,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4053,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4076,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4099,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4122,7 +3756,7 @@
         <v>7</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4145,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4168,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4191,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4214,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4237,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4260,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4283,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4306,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4329,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4352,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4375,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4398,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -4421,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4444,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -4467,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4490,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -4513,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4536,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -4550,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -4559,7 +4193,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -4573,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="P17" s="1">
         <v>26</v>
@@ -4582,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -4605,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -4628,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -4651,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4674,7 +4308,7 @@
         <v>33</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -4697,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4720,7 +4354,7 @@
         <v>34</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -4731,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -4743,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -4754,7 +4388,7 @@
         <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O21" s="1">
         <v>39</v>
@@ -4766,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -4789,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -4812,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -4835,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -4858,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -4881,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4904,7 +4538,7 @@
         <v>48</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -4927,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4950,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -4973,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -4996,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -5019,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -5042,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -5065,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -5088,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -5111,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -5134,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -5157,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5180,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -5203,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5226,53 +4860,53 @@
         <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">

--- a/TestingData.xlsx
+++ b/TestingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\ICT3911Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241E332-6642-42E9-863C-5A7B91E0F7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823376BC-EEF5-4719-9DA6-D651E08521A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1845" windowWidth="21600" windowHeight="12315" activeTab="4" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE0E44F-0ABA-4097-A493-E6A10D57D926}"/>
   </bookViews>
   <sheets>
     <sheet name="QualitySheet" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SequenceSheet" sheetId="3" r:id="rId3"/>
     <sheet name="EntireSequenceSheet" sheetId="4" r:id="rId4"/>
     <sheet name="SizeSpec" sheetId="5" r:id="rId5"/>
+    <sheet name="TEMPSHEET" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="78">
   <si>
     <t>Accuracy</t>
   </si>
@@ -184,21 +185,6 @@
     <t>Procedure 30</t>
   </si>
   <si>
-    <t>24,27</t>
-  </si>
-  <si>
-    <t>38,41</t>
-  </si>
-  <si>
-    <t>Test Attribute 1</t>
-  </si>
-  <si>
-    <t>Test Attribute 2</t>
-  </si>
-  <si>
-    <t>Test Attribute 3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -211,52 +197,79 @@
     <t>5,2</t>
   </si>
   <si>
+    <t>Procedure 31</t>
+  </si>
+  <si>
+    <t>Panel 6</t>
+  </si>
+  <si>
+    <t>13,6,11,1</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>10,4,12</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>81,74,79,69</t>
+  </si>
+  <si>
+    <t>77,70</t>
+  </si>
+  <si>
+    <t>75,71</t>
+  </si>
+  <si>
+    <t>78,72,80</t>
+  </si>
+  <si>
+    <t>76,73</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Procedure 31</t>
-  </si>
-  <si>
-    <t>Panel 6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13,6,11,1</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>10,4,12</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>81,74,79,69</t>
-  </si>
-  <si>
-    <t>77,70</t>
-  </si>
-  <si>
-    <t>75,71</t>
-  </si>
-  <si>
-    <t>78,72,80</t>
-  </si>
-  <si>
-    <t>76,73</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>70,77</t>
+  </si>
+  <si>
+    <t>27,24</t>
+  </si>
+  <si>
+    <t>41,38</t>
+  </si>
+  <si>
+    <t>1,13,6,11</t>
+  </si>
+  <si>
+    <t>10,12,4</t>
+  </si>
+  <si>
+    <t>74,79,69,81</t>
+  </si>
+  <si>
+    <t>78,80,72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel 6 </t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -620,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A2CE25-1FB0-46F3-A95B-A7BCC2B1E34D}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +666,7 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -673,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -682,9 +695,8 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -720,9 +732,8 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -742,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -758,9 +769,8 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -780,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -796,9 +806,8 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -818,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -834,9 +843,8 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -856,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -872,9 +880,8 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -894,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -910,9 +917,8 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -932,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -948,9 +954,8 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -970,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -986,133 +991,32 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1123,7 +1027,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1187,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1233,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1256,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1647,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1716,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1854,30 +1758,30 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1795,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1836,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1978,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2070,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2139,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2162,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2291,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
@@ -2300,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -2392,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,33 +2526,34 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2658,7 +2563,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G1:G32"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2727,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2750,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2773,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2796,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2819,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2842,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2865,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2888,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2911,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2934,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2957,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2980,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3003,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3026,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3049,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3063,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1">
         <v>26</v>
@@ -3072,7 +2977,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,7 +3023,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,7 +3046,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,7 +3057,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>39</v>
@@ -3164,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3187,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,7 +3138,7 @@
         <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,33 +3299,34 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3429,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C30AA8-3415-4BDB-A606-A9FA09E8CC8D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,14 +3413,1545 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603DCBA2-9811-4A26-8C3D-56F43125688B}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1">
+        <v>12</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1">
+        <v>14</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1">
+        <v>21</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="1">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>25</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>28</v>
+      </c>
+      <c r="O18" s="1">
+        <v>29</v>
+      </c>
+      <c r="P18" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>31</v>
+      </c>
+      <c r="O19" s="1">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>33</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1">
+        <v>35</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>37</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="1">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>43</v>
+      </c>
+      <c r="O22" s="1">
+        <v>42</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1">
+        <v>46</v>
+      </c>
+      <c r="P23" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="1">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1">
+        <v>51</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>48</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="1">
+        <v>54</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>53</v>
+      </c>
+      <c r="P25" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="1">
+        <v>57</v>
+      </c>
+      <c r="N26" s="1">
+        <v>55</v>
+      </c>
+      <c r="O26" s="1">
+        <v>56</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>58</v>
+      </c>
+      <c r="O27" s="1">
+        <v>59</v>
+      </c>
+      <c r="P27" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>62</v>
+      </c>
+      <c r="O28" s="1">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="P28" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>64</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>67</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="P32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
